--- a/Parameters/country_parameters.xlsx
+++ b/Parameters/country_parameters.xlsx
@@ -14,15 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Country</t>
   </si>
   <si>
-    <t>Electricity price (euros/kWh)</t>
-  </si>
-  <si>
-    <t>Heat price (euros/kWh)</t>
+    <t>Electricity price (USD/kWh)</t>
+  </si>
+  <si>
+    <t>Heat price (USD/kWh)</t>
   </si>
   <si>
     <t>Solar interest rate</t>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>Wind lifetime (years)</t>
+  </si>
+  <si>
+    <t>Hydro interest rate</t>
+  </si>
+  <si>
+    <t>Hydro lifetime</t>
   </si>
   <si>
     <t>Plant interest rate</t>
@@ -59,7 +65,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -70,7 +78,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -107,22 +115,22 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -430,128 +438,148 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="24.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="24.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="7" width="24.433571428571426" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="7" width="19.576428571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="8" width="22.005" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="7" width="26.14785714285714" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="8" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="20.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="8" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="7" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="8" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="7" width="20.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="8" width="18.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="7" width="17.005" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0.108</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="D2" s="4">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2">
         <v>0.06</v>
       </c>
-      <c r="E2" s="5">
+      <c r="C2" s="3">
+        <v>0.028</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="4">
         <v>20</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G2" s="4">
+        <v>20</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I2" s="4">
+        <v>80</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="K2" s="4">
+        <v>20</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="M2" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2">
         <v>0.06</v>
       </c>
-      <c r="G2" s="5">
+      <c r="C3" s="3">
+        <v>0.028</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="4">
         <v>20</v>
       </c>
-      <c r="H2" s="4">
-        <v>0.06</v>
-      </c>
-      <c r="I2" s="5">
+      <c r="F3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G3" s="4">
         <v>20</v>
       </c>
-      <c r="J2" s="4">
-        <v>0.06</v>
-      </c>
-      <c r="K2" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0.108</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0.06</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="H3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I3" s="4">
+        <v>80</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="K3" s="4">
         <v>20</v>
       </c>
-      <c r="F3" s="4">
-        <v>0.06</v>
-      </c>
-      <c r="G3" s="5">
-        <v>20</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0.06</v>
-      </c>
-      <c r="I3" s="5">
-        <v>20</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0.06</v>
-      </c>
-      <c r="K3" s="5">
-        <v>50</v>
+      <c r="L3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="M3" s="4">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
